--- a/resources/Dates_F20A.xlsx
+++ b/resources/Dates_F20A.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
   <si>
     <t>SHOW</t>
   </si>
@@ -56,12 +56,6 @@
     <t>Fri</t>
   </si>
   <si>
-    <t>Sat</t>
-  </si>
-  <si>
-    <t>Sun</t>
-  </si>
-  <si>
     <t>Why Statistics?</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
     <t>FLEX DAY</t>
   </si>
   <si>
-    <t>FINAL PROJECT</t>
-  </si>
-  <si>
     <t>FoundationalDefns</t>
   </si>
   <si>
@@ -213,6 +204,12 @@
   </si>
   <si>
     <t>RChi</t>
+  </si>
+  <si>
+    <t>DOI</t>
+  </si>
+  <si>
+    <t>FINAL</t>
   </si>
 </sst>
 </file>
@@ -540,551 +537,644 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>44074</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44075</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44076</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="b">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44077</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44078</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
-        <v>44075</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44081</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44082</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="b">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44083</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="b">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44084</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="b">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44085</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="b">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44088</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="b">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44089</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="b">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44090</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="b">
+        <v>1</v>
+      </c>
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>44091</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="b">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44092</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="b">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44095</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="b">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44096</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="b">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
-        <v>44076</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="b">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D19" s="1">
+        <v>44097</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="b">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1">
-        <v>44077</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="b">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D20" s="1">
+        <v>44098</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="b">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
-        <v>44078</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D21" s="1">
+        <v>44099</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="b">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
-        <v>44081</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="b">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D22" s="1">
+        <v>44102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="b">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
-        <v>44082</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="b">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D23" s="1">
+        <v>44103</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="b">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
-        <v>44083</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="b">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D24" s="1">
+        <v>44104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="b">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
-        <v>44084</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="b">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D25" s="1">
+        <v>44105</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="b">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
-        <v>44085</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="b">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D26" s="1">
+        <v>44106</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="1">
-        <v>44088</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="b">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D27" s="1">
+        <v>44109</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="b">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="1">
-        <v>44089</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="b">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D28" s="1">
+        <v>44110</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1">
-        <v>44090</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="b">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D29" s="1">
+        <v>44111</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="b">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="1">
-        <v>44091</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="b">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D30" s="1">
+        <v>44112</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="b">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="1">
-        <v>44092</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="b">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D31" s="1">
+        <v>44113</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="b">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="1">
-        <v>44095</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="b">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1">
-        <v>44096</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="b">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1">
-        <v>44097</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="b">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1">
-        <v>44098</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="b">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1">
-        <v>44099</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="b">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1">
-        <v>44102</v>
-      </c>
-      <c r="D22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="b">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1">
-        <v>44103</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="b">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1">
-        <v>44104</v>
-      </c>
-      <c r="D24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="b">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="1">
-        <v>44105</v>
-      </c>
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="b">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="1">
-        <v>44106</v>
-      </c>
-      <c r="D26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="b">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1">
-        <v>44109</v>
-      </c>
-      <c r="D27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="b">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="1">
-        <v>44110</v>
-      </c>
-      <c r="D28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="b">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1">
-        <v>44111</v>
-      </c>
-      <c r="D29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="b">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="1">
-        <v>44112</v>
-      </c>
-      <c r="D30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="b">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="1">
-        <v>44113</v>
-      </c>
-      <c r="D31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="b">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="1">
-        <v>44114</v>
-      </c>
-      <c r="D32" t="s">
-        <v>36</v>
+      <c r="D32" s="1">
+        <v>44116</v>
       </c>
       <c r="E32" t="s">
         <v>61</v>
@@ -1094,45 +1184,17 @@
       <c r="A33" t="b">
         <v>1</v>
       </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="1">
-        <v>44115</v>
-      </c>
-      <c r="D33" t="s">
-        <v>37</v>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1">
+        <v>44117</v>
       </c>
       <c r="E33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="b">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="1">
-        <v>44116</v>
-      </c>
-      <c r="D34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="b">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1">
-        <v>44117</v>
-      </c>
-      <c r="D35" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Dates_F20A.xlsx
+++ b/resources/Dates_F20A.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
   <si>
     <t>url</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>FINAL</t>
+  </si>
+  <si>
+    <t>Getting Organized</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,10 +577,7 @@
         <v>44074</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -591,10 +591,10 @@
         <v>44075</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -608,10 +608,10 @@
         <v>44076</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -625,10 +625,10 @@
         <v>44077</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -642,10 +642,10 @@
         <v>44078</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -659,10 +659,10 @@
         <v>44081</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -693,10 +693,10 @@
         <v>44083</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -710,10 +710,10 @@
         <v>44084</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -727,10 +727,10 @@
         <v>44085</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -744,7 +744,10 @@
         <v>44088</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">

--- a/resources/Dates_F20A.xlsx
+++ b/resources/Dates_F20A.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
   <si>
     <t>url</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>Getting Organized</t>
+  </si>
+  <si>
+    <t>GetOrganized</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,6 +582,9 @@
       <c r="D2" t="s">
         <v>61</v>
       </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">

--- a/resources/Dates_F20A.xlsx
+++ b/resources/Dates_F20A.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
   <si>
     <t>url</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>Chi-Square in R</t>
-  </si>
-  <si>
-    <t>FLEX DAY</t>
   </si>
   <si>
     <t>FoundationalDefns</t>
@@ -542,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,7 +551,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -580,10 +577,10 @@
         <v>44074</v>
       </c>
       <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
         <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -617,7 +614,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -634,7 +631,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -651,7 +648,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -668,7 +665,7 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -685,7 +682,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -702,7 +699,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -719,7 +716,7 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -736,7 +733,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -753,7 +750,7 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -770,7 +767,7 @@
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -804,7 +801,7 @@
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -821,7 +818,7 @@
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -838,7 +835,7 @@
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -855,7 +852,7 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -872,7 +869,7 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -889,7 +886,7 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -906,7 +903,7 @@
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -923,7 +920,7 @@
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -940,7 +937,7 @@
         <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -954,7 +951,10 @@
         <v>44104</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -968,7 +968,7 @@
         <v>44105</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
         <v>53</v>
@@ -985,7 +985,7 @@
         <v>44106</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
         <v>54</v>
@@ -1002,7 +1002,7 @@
         <v>44109</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
         <v>55</v>
@@ -1019,10 +1019,10 @@
         <v>44110</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1036,10 +1036,10 @@
         <v>44111</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1053,7 +1053,7 @@
         <v>44112</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
         <v>57</v>
@@ -1070,10 +1070,7 @@
         <v>44113</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1087,7 +1084,7 @@
         <v>44116</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1101,7 +1098,7 @@
         <v>44117</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Dates_F20A.xlsx
+++ b/resources/Dates_F20A.xlsx
@@ -179,9 +179,6 @@
     <t>GOFTest</t>
   </si>
   <si>
-    <t>Rregression</t>
-  </si>
-  <si>
     <t>RData</t>
   </si>
   <si>
@@ -210,6 +207,9 @@
   </si>
   <si>
     <t>GetOrganized</t>
+  </si>
+  <si>
+    <t>RRegression</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,7 +551,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -577,10 +577,10 @@
         <v>44074</v>
       </c>
       <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
         <v>60</v>
-      </c>
-      <c r="E2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -954,7 +954,7 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -971,7 +971,7 @@
         <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -988,7 +988,7 @@
         <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1005,7 +1005,7 @@
         <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1022,7 +1022,7 @@
         <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1039,7 +1039,7 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1056,7 +1056,7 @@
         <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1070,7 +1070,7 @@
         <v>44113</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1084,7 +1084,7 @@
         <v>44116</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1098,7 +1098,7 @@
         <v>44117</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
